--- a/Timeline/Task Tracker.xlsx
+++ b/Timeline/Task Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>Gather Images</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Generate visualizations for data</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,6 +867,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
